--- a/biology/Botanique/Cyprès_du_Portugal/Cyprès_du_Portugal.xlsx
+++ b/biology/Botanique/Cyprès_du_Portugal/Cyprès_du_Portugal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Portugal</t>
+          <t>Cyprès_du_Portugal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cupressus lusitanica
 Le cyprès du Portugal, ou cyprès du Mexique, est un arbre de la famille des Cupressacées originaire du sud de l'Amérique du nord et d'Amérique centrale, cultivé comme arbre d'ornement dans les parcs et grands jardins.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Portugal</t>
+          <t>Cyprès_du_Portugal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,7 +527,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce est originaire du Mexique et des régions voisines d'Amérique centrale (Guatemala, Belize, Nicaragua, El Salvador).
 Elle croît en montagne à des altitudes comprises entre 500 et 4000 mètres.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Portugal</t>
+          <t>Cyprès_du_Portugal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès du Portugal est un arbre toujours vert qui peut atteindre 20 à 30 mètres de haut, voire 40 mètres. Sa forme générale est conique-ovoïde.
 Le feuillage forme des rameaux denses, de couleur vert foncé variant vers le vert jaunâtre.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Portugal</t>
+          <t>Cyprès_du_Portugal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il existe deux variétés, traitées comme des espèces distinctes par certains botanistes :
 Cupressus lusitanica var. lusitanica (syn. C. lindleyi) - le cyprès du Portugal proprement dit. Le feuillage forme des rameaux à trois dimensions, avec des ramules disposées dans deux plans. On le trouve dans les régions de plus faible pluviométrie.
@@ -597,7 +615,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cypr%C3%A8s_du_Portugal</t>
+          <t>Cyprès_du_Portugal</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -615,7 +633,9 @@
           <t>Utilisation et culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cyprès du Portugal est un arbre largement cultivé, tant comme arbre d'ornement que pour la production de grumes, dans les régions tempérées chaudes et subtropicales du monde entier.
 Sa culture et la naturalisation qui s'en est ensuivie dans certaines régions du Sud de l'Asie ont entraîné une certaine confusion avec les espèces de Cupressus indigènes de ces régions ; souvent des plants vendus par les pépinières sous le nom d'espèces asiatiques, telles que Cupressus torulosa, se révèlent appartenir en réalité à cette espèce américaine.
